--- a/data/administradores.xlsx
+++ b/data/administradores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,33 +441,43 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Correo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Clave</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Token</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Token_Expira</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maiqel</t>
+          <t>Maik</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$VswexnilhqtgUqDZ$295f1ca31f5663f11083e133a1ef3f6ef2c6749d48a207a55fb8efe0071733c2064a8eac1af8f01486b93363ba1f28c5fcfc9c4ba75677bd620c621d66f35687</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$f0tsmKraamlmK25Y$e2a4009adf1aa840bf02ad96ed9c55fbc64c0cb0486812233d358ac1bca01664fa072e0b0fd62bcb4c863be4bfe5550d3c63b24feba4cb506549e9fe2fb73e92</t>
-        </is>
-      </c>
+          <t>maiqel_mk@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$mCD0YCZhikXwvtQL$f22c5ed3021f6c8d1add8915afeabfcd12f6ca75c397126ba8e7c22ca589f94fda525262f5b6d78b32aba2cd83fd2fe35cf59004e4a58741b58f830409263190</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/administradores.xlsx
+++ b/data/administradores.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$mCD0YCZhikXwvtQL$f22c5ed3021f6c8d1add8915afeabfcd12f6ca75c397126ba8e7c22ca589f94fda525262f5b6d78b32aba2cd83fd2fe35cf59004e4a58741b58f830409263190</t>
+          <t>scrypt:32768:8:1$gwwV2GaOJf1W7hbz$6555cf5265a0a4a155c5b336b3210781707793fb54701ce93c2fa66acd532302023efa0a6a6c5e4ea51406008c47134b2e3e64f2954f1b32abb0deaf29f1252c</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>

--- a/data/administradores.xlsx
+++ b/data/administradores.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>maiqel_mk@hotmail.com</t>
+          <t>maiqemk@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$gwwV2GaOJf1W7hbz$6555cf5265a0a4a155c5b336b3210781707793fb54701ce93c2fa66acd532302023efa0a6a6c5e4ea51406008c47134b2e3e64f2954f1b32abb0deaf29f1252c</t>
+          <t>scrypt:32768:8:1$j7zbyyjoaD6D9VAZ$68e630a7800e79dda5bd48c05d69018664f6657e30e359e3ec392857aaa166acc22d977dc82e62a77801357350837a3d551701c2560648e242703651708a5970</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
